--- a/Data/EC/NIT-9002415823.xlsx
+++ b/Data/EC/NIT-9002415823.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86CCD4FD-0CA2-4C0A-9246-F2336B68A7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8186853-57D5-4B71-862A-724568AC5CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4723255D-2FFF-46D8-911E-1834743591DE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{60DDF283-3235-49D4-8598-E0C423F33F31}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,37 +65,37 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73203395</t>
+  </si>
+  <si>
+    <t>JAIRO MERCADO BUSTAMANTE</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
     <t>1102816018</t>
   </si>
   <si>
     <t>JORGE ENRIQUE GARCIA ORTEGA</t>
   </si>
   <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>73203395</t>
-  </si>
-  <si>
-    <t>JAIRO MERCADO BUSTAMANTE</t>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
   </si>
   <si>
     <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -509,7 +509,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F07A804A-2801-828D-82C6-2EA01B28A2F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CA535B0-6D24-C860-74BF-0623D5651C65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -860,7 +860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08BE9CC8-7686-436F-8D83-790182A7789C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF64686E-0CD1-4B21-833F-9D9A22261001}">
   <dimension ref="B2:J29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1041,7 +1041,7 @@
         <v>46400</v>
       </c>
       <c r="G16" s="18">
-        <v>1160000</v>
+        <v>737717</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1058,13 +1058,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>46400</v>
+        <v>24000</v>
       </c>
       <c r="G17" s="18">
-        <v>737717</v>
+        <v>1160000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1075,16 +1075,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G18" s="18">
         <v>1160000</v>
@@ -1098,13 +1098,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>46400</v>
@@ -1121,13 +1121,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
         <v>46400</v>
@@ -1144,13 +1144,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>46400</v>
@@ -1167,16 +1167,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G22" s="18">
         <v>1160000</v>
@@ -1190,16 +1190,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F23" s="24">
-        <v>24000</v>
+        <v>46400</v>
       </c>
       <c r="G23" s="24">
         <v>1160000</v>

--- a/Data/EC/NIT-9002415823.xlsx
+++ b/Data/EC/NIT-9002415823.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8186853-57D5-4B71-862A-724568AC5CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA70A9E3-E657-41FD-916E-DE87F8E7092A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{60DDF283-3235-49D4-8598-E0C423F33F31}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3E137BA1-163E-4B76-B812-782674BA2BD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -80,22 +80,22 @@
     <t>JORGE ENRIQUE GARCIA ORTEGA</t>
   </si>
   <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
     <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -194,22 +194,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -409,23 +409,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -453,10 +453,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -509,7 +509,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CA535B0-6D24-C860-74BF-0623D5651C65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{386C0B08-287F-532E-BEEC-F286D3FE7CA7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -860,7 +860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF64686E-0CD1-4B21-833F-9D9A22261001}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94DBEAC-2008-47F4-BBBA-AD4C594A0C5C}">
   <dimension ref="B2:J29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1041,7 +1041,7 @@
         <v>46400</v>
       </c>
       <c r="G16" s="18">
-        <v>737717</v>
+        <v>1600000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1058,10 +1058,10 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>24000</v>
+        <v>46400</v>
       </c>
       <c r="G17" s="18">
         <v>1160000</v>
@@ -1081,10 +1081,10 @@
         <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G18" s="18">
         <v>1160000</v>
@@ -1104,7 +1104,7 @@
         <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19" s="18">
         <v>46400</v>
@@ -1127,7 +1127,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
         <v>46400</v>
@@ -1150,7 +1150,7 @@
         <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F21" s="18">
         <v>46400</v>
@@ -1173,10 +1173,10 @@
         <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G22" s="18">
         <v>1160000</v>
@@ -1196,10 +1196,10 @@
         <v>13</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F23" s="24">
-        <v>46400</v>
+        <v>24000</v>
       </c>
       <c r="G23" s="24">
         <v>1160000</v>
